--- a/analyzing/complexityGraph.xlsx
+++ b/analyzing/complexityGraph.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>n</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>N*N</t>
+  </si>
+  <si>
+    <t>N*N*N</t>
   </si>
 </sst>
 </file>
@@ -120,7 +123,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -157,9 +160,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -268,9 +271,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -379,9 +382,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -472,6 +475,119 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3BFA-4B6A-9472-A33CA3A4BA4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N*N*N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>134217728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2DB4-4F84-8524-32B2B5FE09A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -515,9 +631,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -578,9 +694,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -620,7 +736,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -657,7 +773,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -689,12 +805,9 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -729,7 +842,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -740,7 +853,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -756,25 +869,25 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -786,7 +899,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -794,11 +907,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -830,35 +943,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -870,22 +993,26 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -915,15 +1042,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -933,7 +1058,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -942,7 +1067,43 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -952,65 +1113,125 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1023,54 +1244,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -1080,8 +1264,8 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1091,66 +1275,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1159,14 +1284,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1180,27 +1304,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1217,9 +1340,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1232,14 +1355,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1248,16 +1365,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>566737</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1542,10 +1659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E12"/>
+  <dimension ref="B2:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F3" sqref="F3:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,7 +1670,7 @@
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1566,8 +1683,11 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1583,8 +1703,12 @@
         <f>B3*B3</f>
         <v>1</v>
       </c>
+      <c r="F3">
+        <f>B3*B3*B3</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <f>B3*2</f>
         <v>2</v>
@@ -1601,10 +1725,14 @@
         <f t="shared" ref="E4:E12" si="2">B4*B4</f>
         <v>4</v>
       </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F12" si="3">B4*B4*B4</f>
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5">
-        <f t="shared" ref="B5:B12" si="3">B4*2</f>
+        <f t="shared" ref="B5:B12" si="4">B4*2</f>
         <v>4</v>
       </c>
       <c r="C5">
@@ -1619,10 +1747,14 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="C6">
@@ -1637,10 +1769,14 @@
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>512</v>
+      </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="C7">
@@ -1655,10 +1791,14 @@
         <f t="shared" si="2"/>
         <v>256</v>
       </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>4096</v>
+      </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="C8">
@@ -1673,10 +1813,14 @@
         <f t="shared" si="2"/>
         <v>1024</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>32768</v>
+      </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="C9">
@@ -1691,10 +1835,14 @@
         <f t="shared" si="2"/>
         <v>4096</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>262144</v>
+      </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>128</v>
       </c>
       <c r="C10">
@@ -1709,10 +1857,14 @@
         <f t="shared" si="2"/>
         <v>16384</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>2097152</v>
+      </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>256</v>
       </c>
       <c r="C11">
@@ -1727,10 +1879,14 @@
         <f t="shared" si="2"/>
         <v>65536</v>
       </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>16777216</v>
+      </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>512</v>
       </c>
       <c r="C12">
@@ -1744,6 +1900,10 @@
       <c r="E12">
         <f t="shared" si="2"/>
         <v>262144</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>134217728</v>
       </c>
     </row>
   </sheetData>
